--- a/webapp/src/main/resources/template.xlsx
+++ b/webapp/src/main/resources/template.xlsx
@@ -201,11 +201,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -215,10 +220,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,92 +563,93 @@
   <dimension ref="A1:AG13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
     </row>
     <row r="8" spans="1:33" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="5"/>
-      <c r="AF8" s="5"/>
-      <c r="AG8" s="5"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -684,7 +686,7 @@
       <c r="A13" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C13" t="s">
@@ -696,10 +698,10 @@
       <c r="E13" t="s">
         <v>15</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H13" t="s">

--- a/webapp/src/main/resources/template.xlsx
+++ b/webapp/src/main/resources/template.xlsx
@@ -73,7 +73,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="items" var="item" lastCell="D13")</t>
+jx:each(items="items" var="item" lastCell="H13")</t>
         </r>
       </text>
     </comment>
@@ -563,14 +563,14 @@
   <dimension ref="A1:AG13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" customWidth="1"/>
     <col min="6" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
